--- a/data/trans_orig/P5704-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>315371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>289707</v>
+        <v>293211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>339727</v>
+        <v>338981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5398882585019839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4959538079659787</v>
+        <v>0.5019522974074632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5815846058852384</v>
+        <v>0.580307200795012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>524</v>
@@ -765,19 +765,19 @@
         <v>538898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>510273</v>
+        <v>507120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>568778</v>
+        <v>568004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.58489855956841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5538301017131076</v>
+        <v>0.5504078517967972</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6173293800942161</v>
+        <v>0.6164885272413614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>827</v>
@@ -786,19 +786,19 @@
         <v>854269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>816132</v>
+        <v>812870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>892362</v>
+        <v>893003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5674342774752786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5421026426262719</v>
+        <v>0.5399359170603742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5927370158438541</v>
+        <v>0.5931628913209989</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>137795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118750</v>
+        <v>118514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156569</v>
+        <v>158413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.235893189655874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2032894765125968</v>
+        <v>0.2028863550555261</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2680331423833271</v>
+        <v>0.2711888943062908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -836,19 +836,19 @@
         <v>188531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164095</v>
+        <v>165328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212905</v>
+        <v>215762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2046243526513116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1781018276880424</v>
+        <v>0.1794402525203085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2310787897127934</v>
+        <v>0.2341792784782986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -857,19 +857,19 @@
         <v>326326</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294162</v>
+        <v>293987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>357452</v>
+        <v>361125</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2167568595937981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1953921184876366</v>
+        <v>0.1952759318937929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2374316426996045</v>
+        <v>0.2398713823995262</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>101311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84381</v>
+        <v>84208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121000</v>
+        <v>121319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1734358937147062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1444527874064082</v>
+        <v>0.1441565986846205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.207141884958455</v>
+        <v>0.2076882457850356</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -907,19 +907,19 @@
         <v>126762</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105623</v>
+        <v>106887</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149091</v>
+        <v>149302</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.137582097147136</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1146386245725397</v>
+        <v>0.1160107702359347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1618169447830388</v>
+        <v>0.1620469997876622</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -928,19 +928,19 @@
         <v>228073</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>199764</v>
+        <v>201490</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>257441</v>
+        <v>257787</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1514935974599578</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.132689914079156</v>
+        <v>0.133836156540696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1710009099657572</v>
+        <v>0.1712309694626181</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>24998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16176</v>
+        <v>16841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35877</v>
+        <v>36734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04279448220151593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02769251488255137</v>
+        <v>0.02883003274559453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06141764645923305</v>
+        <v>0.06288496593973811</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -978,19 +978,19 @@
         <v>57190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43011</v>
+        <v>42904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73750</v>
+        <v>72260</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06207134545705405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04668272794184705</v>
+        <v>0.04656606595587819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08004558739864469</v>
+        <v>0.07842854241142866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -999,19 +999,19 @@
         <v>82188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66592</v>
+        <v>65964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101295</v>
+        <v>101872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05459180033540294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04423291759777458</v>
+        <v>0.04381522234014181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06728329613611277</v>
+        <v>0.06766649979201027</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>4666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1726</v>
+        <v>1766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10118</v>
+        <v>10082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00798817592592006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002954136741749845</v>
+        <v>0.003023681033566373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0173208456300092</v>
+        <v>0.01725978060928489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1049,19 +1049,19 @@
         <v>9972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4996</v>
+        <v>4799</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20077</v>
+        <v>17170</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0108236451760884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005421946029650406</v>
+        <v>0.005208978191370946</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02179039687439991</v>
+        <v>0.01863542574149453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1070,19 +1070,19 @@
         <v>14639</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7520</v>
+        <v>8057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22712</v>
+        <v>23942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009723465135562595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004995263506151464</v>
+        <v>0.005351764275617514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01508628948450256</v>
+        <v>0.01590308676473177</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>649206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>618682</v>
+        <v>616317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>683531</v>
+        <v>682220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.602291429671012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5739732058640896</v>
+        <v>0.5717792190425388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6341358953950802</v>
+        <v>0.6329190767077385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>602</v>
@@ -1195,19 +1195,19 @@
         <v>617324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>585504</v>
+        <v>584571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>648471</v>
+        <v>651262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5837372003845236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.553648436465014</v>
+        <v>0.552765708166188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6131893382438032</v>
+        <v>0.615828149870069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1237</v>
@@ -1216,19 +1216,19 @@
         <v>1266531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1218810</v>
+        <v>1221822</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1311484</v>
+        <v>1312484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5931027492254046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5707557327859056</v>
+        <v>0.5721662176444253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6141540422838989</v>
+        <v>0.6146222070583826</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>281369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249771</v>
+        <v>253560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308492</v>
+        <v>312030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2610358052912247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2317213668961351</v>
+        <v>0.235236452352438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2861984466486019</v>
+        <v>0.2894807821648995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1266,19 +1266,19 @@
         <v>253360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226469</v>
+        <v>225029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>281311</v>
+        <v>282108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2395753097192184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2141472771467014</v>
+        <v>0.2127854999824326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2660054731605918</v>
+        <v>0.2667595746874384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>524</v>
@@ -1287,19 +1287,19 @@
         <v>534729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>495097</v>
+        <v>494940</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>574185</v>
+        <v>576722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2504078437105656</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2318488043675681</v>
+        <v>0.2317752509368795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2688846046753059</v>
+        <v>0.2700729073542554</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>122549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104492</v>
+        <v>102810</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146315</v>
+        <v>145101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1136932595487884</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09694066588907389</v>
+        <v>0.09538019994456379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1357415081621606</v>
+        <v>0.1346157234850804</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -1337,19 +1337,19 @@
         <v>136618</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117528</v>
+        <v>115752</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161933</v>
+        <v>160119</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1291851699079536</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1111339935119616</v>
+        <v>0.1094546786671491</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1531229276902503</v>
+        <v>0.151406891177258</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>252</v>
@@ -1358,19 +1358,19 @@
         <v>259168</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>227869</v>
+        <v>230540</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291917</v>
+        <v>289373</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1213653763252059</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1067084149411976</v>
+        <v>0.107959616820637</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.136701419208966</v>
+        <v>0.1355104535115211</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>23124</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14725</v>
+        <v>14864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34168</v>
+        <v>36193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02145304254641953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01366108173641766</v>
+        <v>0.01379018222363983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03169880978488288</v>
+        <v>0.03357763864782307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1408,19 +1408,19 @@
         <v>45398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32810</v>
+        <v>32908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59390</v>
+        <v>59219</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04292808942672316</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03102502892598084</v>
+        <v>0.03111778725140885</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05615880808512001</v>
+        <v>0.0559971455209971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -1429,19 +1429,19 @@
         <v>68522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53316</v>
+        <v>52160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88702</v>
+        <v>85873</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0320882104259739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02496715566540367</v>
+        <v>0.02442594799222964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04153819424666431</v>
+        <v>0.04021362387450996</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8280</v>
+        <v>8307</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001526462942555252</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007681649037038385</v>
+        <v>0.007706639388680207</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1482,16 +1482,16 @@
         <v>1073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11577</v>
+        <v>11575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004574230561581297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001014720926850042</v>
+        <v>0.001014970881406612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0109474149535858</v>
+        <v>0.01094493577259689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>6483</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2593</v>
+        <v>2140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16063</v>
+        <v>13785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003035820312850007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001214373411695815</v>
+        <v>0.001002078779624623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007521992973023928</v>
+        <v>0.006455291311502412</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>650402</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>619914</v>
+        <v>617560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>684932</v>
+        <v>681432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5798911856161042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5527081121414488</v>
+        <v>0.5506089193313745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6106775651447257</v>
+        <v>0.6075564652220327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>509</v>
@@ -1625,19 +1625,19 @@
         <v>513046</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>479875</v>
+        <v>483189</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>542885</v>
+        <v>547660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5161737847749667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4828011255074807</v>
+        <v>0.486135003285854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5461947911190222</v>
+        <v>0.5509991746231387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1144</v>
@@ -1646,19 +1646,19 @@
         <v>1163448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1119197</v>
+        <v>1115036</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1204632</v>
+        <v>1206585</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5499548897272812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5290377091484703</v>
+        <v>0.5270709081872397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5694220705998737</v>
+        <v>0.5703455761380866</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>330255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>300240</v>
+        <v>300600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358756</v>
+        <v>362846</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.294451722120273</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2676901882346891</v>
+        <v>0.2680118093801691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3198628279356035</v>
+        <v>0.3235092438712653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -1696,19 +1696,19 @@
         <v>337618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308110</v>
+        <v>307950</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>370931</v>
+        <v>367008</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3396766592922346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3099882247735226</v>
+        <v>0.3098279396535267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3731926947107882</v>
+        <v>0.3692459424500811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>662</v>
@@ -1717,19 +1717,19 @@
         <v>667873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>625339</v>
+        <v>628477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>710003</v>
+        <v>712209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3156997184738715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.295594069531284</v>
+        <v>0.2970774010233223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3356140831581124</v>
+        <v>0.3366570642692546</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>112298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>94053</v>
+        <v>92567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133024</v>
+        <v>133251</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1001232054492511</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08385658660891554</v>
+        <v>0.0825315326124867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1186028520251666</v>
+        <v>0.1188050601702844</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -1767,19 +1767,19 @@
         <v>117431</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>97334</v>
+        <v>98068</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>138025</v>
+        <v>137431</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1181466332958019</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09792759183686266</v>
+        <v>0.09866622886103864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1388667464978235</v>
+        <v>0.1382686664560144</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>227</v>
@@ -1788,19 +1788,19 @@
         <v>229728</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>203289</v>
+        <v>201671</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259656</v>
+        <v>258842</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1085911382560275</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09609332467579965</v>
+        <v>0.09532861744144465</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1227377900218213</v>
+        <v>0.1223529076722014</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>25795</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17149</v>
+        <v>17606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38284</v>
+        <v>38640</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02299815557719979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01529005278070251</v>
+        <v>0.01569768522850808</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03413397961336413</v>
+        <v>0.03445062197261586</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1838,19 +1838,19 @@
         <v>25845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16736</v>
+        <v>16742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37840</v>
+        <v>37654</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02600292263699696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01683846903152655</v>
+        <v>0.01684402137776578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03807047318774221</v>
+        <v>0.03788362737314842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -1859,19 +1859,19 @@
         <v>51640</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38910</v>
+        <v>38335</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67058</v>
+        <v>68183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0244098829011587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01839249583111936</v>
+        <v>0.01812092677126588</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03169785637827706</v>
+        <v>0.03222991099129446</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10321</v>
+        <v>10144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002535731237171933</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009201780766821224</v>
+        <v>0.00904464211455191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10517</v>
+        <v>9635</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001344370641660944</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004971286343174162</v>
+        <v>0.004554604385958474</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>256311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>235766</v>
+        <v>234530</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>278022</v>
+        <v>276251</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5753098671325698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5291947389093532</v>
+        <v>0.5264217047472622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6240424769348949</v>
+        <v>0.6200679550808453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -2047,19 +2047,19 @@
         <v>216419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198538</v>
+        <v>199315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234564</v>
+        <v>233281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6343658912639789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5819520079265228</v>
+        <v>0.5842310912218752</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6875513214547291</v>
+        <v>0.683790987645181</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>468</v>
@@ -2068,19 +2068,19 @@
         <v>472730</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>446425</v>
+        <v>443712</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>500646</v>
+        <v>498144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.600920714525187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5674820968838777</v>
+        <v>0.5640340869210643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6364070598479908</v>
+        <v>0.6332258353018572</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>142558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>123512</v>
+        <v>123332</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161855</v>
+        <v>163134</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.319981571978338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2772324320562267</v>
+        <v>0.2768276203953191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3632957127817712</v>
+        <v>0.3661672818228116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>99</v>
@@ -2118,19 +2118,19 @@
         <v>100780</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>83834</v>
+        <v>84844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117477</v>
+        <v>117883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2954066586898146</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2457338301526377</v>
+        <v>0.2486938366339156</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3443464711694773</v>
+        <v>0.3455381484866793</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>239</v>
@@ -2139,19 +2139,19 @@
         <v>243338</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>217106</v>
+        <v>219324</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>269498</v>
+        <v>270600</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3093241604242061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2759795421796735</v>
+        <v>0.2787979390896608</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3425781475759771</v>
+        <v>0.343978441487212</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>37982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26350</v>
+        <v>25235</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51165</v>
+        <v>51074</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08525388955532513</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05914358322759779</v>
+        <v>0.05664186119861108</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1148433590420081</v>
+        <v>0.1146388541876754</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2189,19 +2189,19 @@
         <v>15679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9420</v>
+        <v>8751</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25154</v>
+        <v>23993</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04595892059449521</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02761166926121397</v>
+        <v>0.02565002864614965</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07373206252731132</v>
+        <v>0.07032851383982047</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>50</v>
@@ -2210,19 +2210,19 @@
         <v>53661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40336</v>
+        <v>40655</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>69898</v>
+        <v>70743</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06821282612182858</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0512742191712269</v>
+        <v>0.05167955418515629</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08885256516408334</v>
+        <v>0.08992706688421875</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>7799</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3474</v>
+        <v>3342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16669</v>
+        <v>15619</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01750623246296048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007797027924482517</v>
+        <v>0.007501630445553418</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03741405340462775</v>
+        <v>0.03505892357194282</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2260,19 +2260,19 @@
         <v>8279</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3918</v>
+        <v>3661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16463</v>
+        <v>15880</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02426852945171126</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01148377182838101</v>
+        <v>0.01072998577089506</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04825655634454107</v>
+        <v>0.04654874219475554</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2281,19 +2281,19 @@
         <v>16079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9287</v>
+        <v>9212</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25898</v>
+        <v>26311</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02043884024937495</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01180548653425706</v>
+        <v>0.01170999577195878</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03292099829745257</v>
+        <v>0.03344595239835581</v>
       </c>
     </row>
     <row r="26">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4938</v>
+        <v>4974</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0019484388708065</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0110831077876733</v>
+        <v>0.01116356661110946</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5190</v>
+        <v>4874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001103458679403323</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006597220787149733</v>
+        <v>0.006195452074534005</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>1871291</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1811124</v>
+        <v>1809176</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1924882</v>
+        <v>1924122</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5794999554648563</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5608674500240488</v>
+        <v>0.5602642090568032</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5960959508123433</v>
+        <v>0.5958604899727413</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1852</v>
@@ -2469,19 +2469,19 @@
         <v>1885687</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1829767</v>
+        <v>1828648</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1941907</v>
+        <v>1938942</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5690082569003588</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5521342814240398</v>
+        <v>0.5517967354758918</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5859727399597201</v>
+        <v>0.5850780565022988</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3676</v>
@@ -2490,19 +2490,19 @@
         <v>3756978</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3678096</v>
+        <v>3669830</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3844316</v>
+        <v>3830482</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5741860862696389</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5621304470290189</v>
+        <v>0.5608671404246388</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5875342339048355</v>
+        <v>0.5854198706166979</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>891977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>841855</v>
+        <v>844455</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>950392</v>
+        <v>944043</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2762267060369059</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2607050353293434</v>
+        <v>0.261510273482389</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2943165028763918</v>
+        <v>0.2923504534526928</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>860</v>
@@ -2540,19 +2540,19 @@
         <v>880290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>833205</v>
+        <v>832287</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>936647</v>
+        <v>931158</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2656284617864207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2514204939076463</v>
+        <v>0.2511434914274994</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2826341668820076</v>
+        <v>0.2809780979043914</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1741</v>
@@ -2561,19 +2561,19 @@
         <v>1772266</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1700243</v>
+        <v>1701397</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1843514</v>
+        <v>1845387</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2708588732403542</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2598514067000698</v>
+        <v>0.2600277923139028</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2817477622362344</v>
+        <v>0.2820340129205677</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>374140</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>340033</v>
+        <v>337876</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>412499</v>
+        <v>409597</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1158634293122846</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1053011489968907</v>
+        <v>0.1046332636512345</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1277423698802881</v>
+        <v>0.126843765206134</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>379</v>
@@ -2611,19 +2611,19 @@
         <v>396490</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>358064</v>
+        <v>362725</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>432601</v>
+        <v>436621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1196412587292189</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1080463305033632</v>
+        <v>0.1094527220095639</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1305378875067734</v>
+        <v>0.1317508413042386</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>750</v>
@@ -2632,19 +2632,19 @@
         <v>770630</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>718143</v>
+        <v>718207</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>821365</v>
+        <v>820770</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1177768364922587</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1097552055022949</v>
+        <v>0.1097650186416965</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1255307440028939</v>
+        <v>0.1254399133688951</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>81716</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64381</v>
+        <v>64326</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>100745</v>
+        <v>100698</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02530577245541843</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01993752784887982</v>
+        <v>0.0199205333281913</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03119871307191282</v>
+        <v>0.03118408879727816</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>129</v>
@@ -2682,19 +2682,19 @@
         <v>136712</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>114849</v>
+        <v>115441</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>162568</v>
+        <v>161942</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0412531417640968</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03465596038050359</v>
+        <v>0.03483444892688307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04905493825354931</v>
+        <v>0.04886623561331512</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>210</v>
@@ -2703,19 +2703,19 @@
         <v>218429</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>191302</v>
+        <v>190594</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>249690</v>
+        <v>249431</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03338284729636927</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02923711740619007</v>
+        <v>0.02912882624366556</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03816063203759759</v>
+        <v>0.03812102903591473</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>10024</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4880</v>
+        <v>4644</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21318</v>
+        <v>19660</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003104136730534767</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001511270496291466</v>
+        <v>0.001438239109179356</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006601892244928878</v>
+        <v>0.006088194066562097</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2753,19 +2753,19 @@
         <v>14810</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7527</v>
+        <v>8318</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25215</v>
+        <v>25200</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004468880819904739</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002271249396582294</v>
+        <v>0.002509851056064885</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00760874747917756</v>
+        <v>0.007604146266580533</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2774,19 +2774,19 @@
         <v>24834</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15841</v>
+        <v>16141</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37871</v>
+        <v>38202</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00379535670137898</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00242097613717423</v>
+        <v>0.002466824128887196</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005787969153252598</v>
+        <v>0.00583850471293465</v>
       </c>
     </row>
     <row r="33">
@@ -3118,19 +3118,19 @@
         <v>619191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>582885</v>
+        <v>584854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>652697</v>
+        <v>648576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5966560977129342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5616710800604205</v>
+        <v>0.5635689419802622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6289424910445125</v>
+        <v>0.6249710002685258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>530</v>
@@ -3139,19 +3139,19 @@
         <v>571173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>538140</v>
+        <v>535379</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>605819</v>
+        <v>605582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5123567215108994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4827253883568676</v>
+        <v>0.4802487030083668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5434356482507834</v>
+        <v>0.543222923604561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1114</v>
@@ -3160,19 +3160,19 @@
         <v>1190364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1140652</v>
+        <v>1141876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1235969</v>
+        <v>1239790</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.552998158154739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5299038497777053</v>
+        <v>0.5304723870807436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5741843762338273</v>
+        <v>0.5759596549658597</v>
       </c>
     </row>
     <row r="5">
@@ -3189,19 +3189,19 @@
         <v>269177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240686</v>
+        <v>242741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299169</v>
+        <v>299887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2593807135706183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2319262132825277</v>
+        <v>0.2339064151736901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2882812015242526</v>
+        <v>0.288972386454812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>326</v>
@@ -3210,19 +3210,19 @@
         <v>357356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323574</v>
+        <v>326572</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390489</v>
+        <v>391403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3205575417398169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2902540067621361</v>
+        <v>0.2929435291130594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3502786110093274</v>
+        <v>0.3510984312602151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>575</v>
@@ -3231,19 +3231,19 @@
         <v>626533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583439</v>
+        <v>586419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>669836</v>
+        <v>675646</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.291063679529606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2710437900931347</v>
+        <v>0.2724279893554811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3111803186127612</v>
+        <v>0.3138794128030541</v>
       </c>
     </row>
     <row r="6">
@@ -3260,19 +3260,19 @@
         <v>114721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94845</v>
+        <v>95031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134894</v>
+        <v>135120</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1105453199960592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09139281503927288</v>
+        <v>0.09157214651462718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1299847597711143</v>
+        <v>0.1302022877745819</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>126</v>
@@ -3281,19 +3281,19 @@
         <v>137076</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116949</v>
+        <v>115169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>161649</v>
+        <v>162417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1229607509354516</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1049059991912355</v>
+        <v>0.1033094679179255</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1450030719424033</v>
+        <v>0.1456920317577617</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -3302,19 +3302,19 @@
         <v>251797</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>222317</v>
+        <v>222306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>284400</v>
+        <v>282652</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1169751674986301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1032803080791701</v>
+        <v>0.1032749882325567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1321213376092586</v>
+        <v>0.1313094181053485</v>
       </c>
     </row>
     <row r="7">
@@ -3331,19 +3331,19 @@
         <v>27738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18751</v>
+        <v>18845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40665</v>
+        <v>40310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.026728380789222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01806861496030472</v>
+        <v>0.01815951773261097</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0391845564472175</v>
+        <v>0.03884323845399249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3352,19 +3352,19 @@
         <v>33972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23461</v>
+        <v>23379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47662</v>
+        <v>47155</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03047384707491508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02104548661380709</v>
+        <v>0.02097162669093286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04275413687496788</v>
+        <v>0.04229896771149551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -3373,19 +3373,19 @@
         <v>61710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47609</v>
+        <v>46443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79736</v>
+        <v>78260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02866812634945189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02211721801091044</v>
+        <v>0.02157566377986716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03704215598102173</v>
+        <v>0.03635660905974499</v>
       </c>
     </row>
     <row r="8">
@@ -3402,19 +3402,19 @@
         <v>6942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2838</v>
+        <v>2876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16091</v>
+        <v>15702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006689487931166335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00273451446027703</v>
+        <v>0.002771576619840736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01550500018312648</v>
+        <v>0.01513080734446336</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3423,19 +3423,19 @@
         <v>15218</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8863</v>
+        <v>9129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24950</v>
+        <v>26300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01365113873891701</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007950339827716969</v>
+        <v>0.008189015400880538</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02238114340341268</v>
+        <v>0.02359134740543526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3444,19 +3444,19 @@
         <v>22160</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14451</v>
+        <v>13444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35456</v>
+        <v>34553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01029486846757301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006713512493514817</v>
+        <v>0.006245644026946249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01647135943717301</v>
+        <v>0.01605203433013966</v>
       </c>
     </row>
     <row r="9">
@@ -3548,19 +3548,19 @@
         <v>619970</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>587990</v>
+        <v>589253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>653930</v>
+        <v>653177</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6357283779794989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6029357538611348</v>
+        <v>0.6042308575941697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6705512008499727</v>
+        <v>0.6697795034340582</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>583</v>
@@ -3569,19 +3569,19 @@
         <v>622045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>587700</v>
+        <v>587382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>656197</v>
+        <v>657539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5700467703776513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5385720556310502</v>
+        <v>0.5382813134638871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6013436511914259</v>
+        <v>0.602573725656959</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1178</v>
@@ -3590,19 +3590,19 @@
         <v>1242015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1194139</v>
+        <v>1191404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1285624</v>
+        <v>1289678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6010439458790375</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.577875700826639</v>
+        <v>0.5765522094132769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6221477573805629</v>
+        <v>0.6241093322504907</v>
       </c>
     </row>
     <row r="11">
@@ -3619,19 +3619,19 @@
         <v>257669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228050</v>
+        <v>226683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286852</v>
+        <v>284869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2642179811897641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2338469745613387</v>
+        <v>0.2324449717303013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2941435174461932</v>
+        <v>0.2921098027335061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -3640,19 +3640,19 @@
         <v>335540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306204</v>
+        <v>302641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>369978</v>
+        <v>365348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3074908278898713</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2806079461716529</v>
+        <v>0.2773420529914237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3390505444310514</v>
+        <v>0.3348072556837308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -3661,19 +3661,19 @@
         <v>593208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>550468</v>
+        <v>550167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632891</v>
+        <v>638491</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2870690374894476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2663863593242515</v>
+        <v>0.2662402499325918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3062729172137251</v>
+        <v>0.3089827599461492</v>
       </c>
     </row>
     <row r="12">
@@ -3690,19 +3690,19 @@
         <v>84036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67514</v>
+        <v>67191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>105564</v>
+        <v>104472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08617249083341846</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06923035103577606</v>
+        <v>0.0688987377412707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1082476293354841</v>
+        <v>0.1071271704586735</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>92</v>
@@ -3711,19 +3711,19 @@
         <v>102782</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83324</v>
+        <v>83953</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>124762</v>
+        <v>126931</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09419054826061884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07635833549824927</v>
+        <v>0.07693517432317908</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1143330959242859</v>
+        <v>0.116320327657048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>166</v>
@@ -3732,19 +3732,19 @@
         <v>186819</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>162633</v>
+        <v>162180</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>217486</v>
+        <v>218605</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09040657977498555</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07870259408634821</v>
+        <v>0.07848342638318502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1052473518875296</v>
+        <v>0.1057886912461628</v>
       </c>
     </row>
     <row r="13">
@@ -3761,19 +3761,19 @@
         <v>10523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5058</v>
+        <v>5108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20081</v>
+        <v>18488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01079067129610482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005186075461739197</v>
+        <v>0.005237899402861294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02059132225998276</v>
+        <v>0.01895744115923646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -3782,19 +3782,19 @@
         <v>27715</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18566</v>
+        <v>18460</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39760</v>
+        <v>40553</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02539847806388227</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01701363652056778</v>
+        <v>0.01691680623080945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03643635361194501</v>
+        <v>0.03716330512814866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3803,19 +3803,19 @@
         <v>38238</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26546</v>
+        <v>27237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53577</v>
+        <v>53481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01850460371147683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01284632661450447</v>
+        <v>0.01318076914165254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02592749603028799</v>
+        <v>0.02588087044422807</v>
       </c>
     </row>
     <row r="14">
@@ -3832,19 +3832,19 @@
         <v>3014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8274</v>
+        <v>7884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00309047870121379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009899780883251708</v>
+        <v>0.0009848760615313004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008484097410550518</v>
+        <v>0.00808422202312809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3853,19 +3853,19 @@
         <v>3135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9290</v>
+        <v>8489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002873375407976283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00088945636405113</v>
+        <v>0.0008938431036105678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008513383934949832</v>
+        <v>0.007779110089714278</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -3874,19 +3874,19 @@
         <v>6149</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2105</v>
+        <v>2152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12250</v>
+        <v>13380</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002975833145052478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001018739356433623</v>
+        <v>0.001041446579668478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005928092568699091</v>
+        <v>0.006474823723181958</v>
       </c>
     </row>
     <row r="15">
@@ -3978,19 +3978,19 @@
         <v>511638</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>482822</v>
+        <v>477657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>542670</v>
+        <v>541486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5793338876754405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.546705668194345</v>
+        <v>0.5408573698613145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.614472394527522</v>
+        <v>0.6131321988663295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>496</v>
@@ -3999,19 +3999,19 @@
         <v>523916</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>493373</v>
+        <v>493979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>555159</v>
+        <v>552807</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5982165312437382</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5633428332811307</v>
+        <v>0.5640344296784868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6338902630118668</v>
+        <v>0.6312054974244139</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>982</v>
@@ -4020,19 +4020,19 @@
         <v>1035553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>991848</v>
+        <v>992504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1081402</v>
+        <v>1078010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.588735743272604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5638884165090264</v>
+        <v>0.5642615011818976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6148019206085487</v>
+        <v>0.6128734860118502</v>
       </c>
     </row>
     <row r="17">
@@ -4049,19 +4049,19 @@
         <v>287877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254682</v>
+        <v>259655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316428</v>
+        <v>319325</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3259668073820476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.288379416627331</v>
+        <v>0.2940104218934781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3582954994297305</v>
+        <v>0.3615761185918126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -4070,19 +4070,19 @@
         <v>283710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>255696</v>
+        <v>256131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>313656</v>
+        <v>311950</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3239455550191839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2919588825299727</v>
+        <v>0.2924551835106709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3581376871737582</v>
+        <v>0.356190320675959</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -4091,19 +4091,19 @@
         <v>571587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>530743</v>
+        <v>533776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>613955</v>
+        <v>614837</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3249604057745431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3017394191590424</v>
+        <v>0.3034639713210514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3490477540321826</v>
+        <v>0.3495487000401707</v>
       </c>
     </row>
     <row r="18">
@@ -4120,19 +4120,19 @@
         <v>70164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54938</v>
+        <v>55221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90485</v>
+        <v>89585</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07944807635120986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06220707488662561</v>
+        <v>0.06252693791896048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.102457682208672</v>
+        <v>0.101437852409972</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -4141,19 +4141,19 @@
         <v>58898</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44980</v>
+        <v>45138</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75314</v>
+        <v>75984</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06725045771840164</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05135913666843446</v>
+        <v>0.05153973736073381</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08599511712211544</v>
+        <v>0.08675989941540178</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>119</v>
@@ -4162,19 +4162,19 @@
         <v>129062</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>107677</v>
+        <v>106110</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>154653</v>
+        <v>151971</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07337476100210949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06121665255306733</v>
+        <v>0.06032619466709527</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08792364021983644</v>
+        <v>0.08639922037615509</v>
       </c>
     </row>
     <row r="19">
@@ -4191,19 +4191,19 @@
         <v>10465</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5195</v>
+        <v>5223</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18728</v>
+        <v>17925</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01184972795770664</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00588231440476796</v>
+        <v>0.005913625702673304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02120564601356208</v>
+        <v>0.02029722128352563</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4212,19 +4212,19 @@
         <v>6047</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2100</v>
+        <v>2908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12102</v>
+        <v>13007</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006904153423204828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002397473085073484</v>
+        <v>0.003320622162636962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01381857409259825</v>
+        <v>0.01485194061180537</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4233,19 +4233,19 @@
         <v>16512</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9634</v>
+        <v>10068</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26639</v>
+        <v>25719</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009387277324127953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005477027785512708</v>
+        <v>0.005724071901674635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01514505329800849</v>
+        <v>0.01462210114016506</v>
       </c>
     </row>
     <row r="20">
@@ -4265,16 +4265,16 @@
         <v>964</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8979</v>
+        <v>8008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003401500633595354</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001091148250598442</v>
+        <v>0.001090993954889109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01016732957653597</v>
+        <v>0.009067450679154472</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4283,19 +4283,19 @@
         <v>3226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8874</v>
+        <v>8751</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003683302595471378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001029086916316021</v>
+        <v>0.001034271741407805</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01013276878320926</v>
+        <v>0.009991938401081694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4304,19 +4304,19 @@
         <v>6230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2164</v>
+        <v>2263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13649</v>
+        <v>13738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00354181262661544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001230071695330087</v>
+        <v>0.001286536090528872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007759724357950404</v>
+        <v>0.007810273640105194</v>
       </c>
     </row>
     <row r="21">
@@ -4408,19 +4408,19 @@
         <v>329063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>304786</v>
+        <v>306417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352579</v>
+        <v>349741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6595196024798821</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6108620544113699</v>
+        <v>0.6141301330723536</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7066501213393774</v>
+        <v>0.7009624287222939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>290</v>
@@ -4429,19 +4429,19 @@
         <v>317434</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>298483</v>
+        <v>296750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337616</v>
+        <v>337045</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7058564196361173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6637165510487024</v>
+        <v>0.6598628650344637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7507329196662267</v>
+        <v>0.7494639615801987</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>593</v>
@@ -4450,19 +4450,19 @@
         <v>646498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>616426</v>
+        <v>612738</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>676612</v>
+        <v>677888</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6814857249153554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6497862001754714</v>
+        <v>0.6458996125015409</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7132303671035396</v>
+        <v>0.7145749065582225</v>
       </c>
     </row>
     <row r="23">
@@ -4479,19 +4479,19 @@
         <v>122832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102228</v>
+        <v>103831</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>145766</v>
+        <v>146720</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2461834319751596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2048887173437848</v>
+        <v>0.208100937634815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2921481142248769</v>
+        <v>0.2940617978019258</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -4500,19 +4500,19 @@
         <v>100532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82401</v>
+        <v>83520</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117826</v>
+        <v>119607</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2235467569424554</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1832294088750382</v>
+        <v>0.1857180130076361</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2620017037666217</v>
+        <v>0.2659622985848183</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>201</v>
@@ -4521,19 +4521,19 @@
         <v>223364</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196088</v>
+        <v>196202</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>251240</v>
+        <v>253105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2354524408148509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2067000677013182</v>
+        <v>0.2068200536955282</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.264836866484022</v>
+        <v>0.2668033838213416</v>
       </c>
     </row>
     <row r="24">
@@ -4550,19 +4550,19 @@
         <v>43923</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32600</v>
+        <v>31336</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58627</v>
+        <v>57591</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08803166704315855</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06533738289725133</v>
+        <v>0.06280377971398009</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1175028053306997</v>
+        <v>0.1154264902557574</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -4571,19 +4571,19 @@
         <v>27011</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17427</v>
+        <v>17685</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39280</v>
+        <v>39387</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06006351581711156</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03875101312101843</v>
+        <v>0.03932439019852407</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08734517993793064</v>
+        <v>0.08758188040144135</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -4592,19 +4592,19 @@
         <v>70934</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53792</v>
+        <v>55078</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89486</v>
+        <v>89644</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07477327184407195</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05670368537888128</v>
+        <v>0.05805850239848165</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0943287267864444</v>
+        <v>0.09449544954700098</v>
       </c>
     </row>
     <row r="25">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5002</v>
+        <v>5316</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002100476176930092</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01002607589287365</v>
+        <v>0.0106545168600554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4642,19 +4642,19 @@
         <v>3756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10932</v>
+        <v>11003</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008352190172446936</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001997257815386084</v>
+        <v>0.00201526580840738</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02430970699676681</v>
+        <v>0.02446725874841386</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4663,19 +4663,19 @@
         <v>4804</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1056</v>
+        <v>1367</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11627</v>
+        <v>12396</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005064122009445076</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001112997876097334</v>
+        <v>0.001440702281816023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.012255960609395</v>
+        <v>0.01306737669721405</v>
       </c>
     </row>
     <row r="26">
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7154</v>
+        <v>6302</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004164822324869689</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01433857928583058</v>
+        <v>0.0126301303695674</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4517</v>
+        <v>4966</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002181117431868767</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01004341817933765</v>
+        <v>0.01104311924392731</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -4734,19 +4734,19 @@
         <v>3059</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8124</v>
+        <v>9157</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003224440416276678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001030586065107285</v>
+        <v>0.001031529146569279</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008564099130840129</v>
+        <v>0.00965291010258592</v>
       </c>
     </row>
     <row r="27">
@@ -4838,19 +4838,19 @@
         <v>2079862</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2021524</v>
+        <v>2020577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2137460</v>
+        <v>2136397</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6126118716485387</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5954287649691908</v>
+        <v>0.5951497712536646</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6295770066700038</v>
+        <v>0.6292640811553549</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1899</v>
@@ -4859,19 +4859,19 @@
         <v>2034567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1969941</v>
+        <v>1971483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2087460</v>
+        <v>2092513</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5761161051140752</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5578161452096175</v>
+        <v>0.5582527905093859</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5910934201407434</v>
+        <v>0.5925243409896269</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3867</v>
@@ -4880,19 +4880,19 @@
         <v>4114429</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4029601</v>
+        <v>4032350</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4189305</v>
+        <v>4201110</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5940045158542699</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5817578268384173</v>
+        <v>0.582154611692324</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6048144699727879</v>
+        <v>0.6065186322776513</v>
       </c>
     </row>
     <row r="29">
@@ -4909,19 +4909,19 @@
         <v>937555</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>883801</v>
+        <v>888067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>989461</v>
+        <v>996014</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2761515047408115</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2603185733297114</v>
+        <v>0.2615751131757407</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.291440249244266</v>
+        <v>0.2933702807301201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>993</v>
@@ -4930,19 +4930,19 @@
         <v>1077138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1022315</v>
+        <v>1016645</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1133635</v>
+        <v>1129194</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3050065729454122</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2894828796479008</v>
+        <v>0.2878773108089751</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3210044586403875</v>
+        <v>0.3197470388221267</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1856</v>
@@ -4951,19 +4951,19 @@
         <v>2014692</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1942199</v>
+        <v>1931036</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2091415</v>
+        <v>2099400</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2908632527470872</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2803973623404913</v>
+        <v>0.2787857207466957</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3019398421320565</v>
+        <v>0.3030926055880619</v>
       </c>
     </row>
     <row r="30">
@@ -4980,19 +4980,19 @@
         <v>312844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>279003</v>
+        <v>279139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>347080</v>
+        <v>353949</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0921465416055542</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0821787768326378</v>
+        <v>0.0822187203840261</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1022304926979559</v>
+        <v>0.1042536460276736</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>295</v>
@@ -5001,19 +5001,19 @@
         <v>325768</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>292230</v>
+        <v>288685</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>360417</v>
+        <v>362132</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09224561544713858</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08274901368136331</v>
+        <v>0.08174509126687897</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1020570452859932</v>
+        <v>0.1025426094010218</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>583</v>
@@ -5022,19 +5022,19 @@
         <v>638612</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>588982</v>
+        <v>588805</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>689403</v>
+        <v>692572</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09219705437444001</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08503200444951935</v>
+        <v>0.08500639414964246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09952990646844168</v>
+        <v>0.09998733434309529</v>
       </c>
     </row>
     <row r="31">
@@ -5051,19 +5051,19 @@
         <v>49774</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36674</v>
+        <v>36293</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>66706</v>
+        <v>63773</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01466070533205031</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01080215600462544</v>
+        <v>0.01068986929630336</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01964795914721227</v>
+        <v>0.01878392850412323</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -5072,19 +5072,19 @@
         <v>71490</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56952</v>
+        <v>55772</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>92943</v>
+        <v>91416</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02024341493208473</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01612676018026616</v>
+        <v>0.01579249499032361</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02631811083351526</v>
+        <v>0.025885836187288</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>112</v>
@@ -5093,19 +5093,19 @@
         <v>121264</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100727</v>
+        <v>102166</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>146314</v>
+        <v>148285</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01750704817364607</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01454213398164744</v>
+        <v>0.01474988304453657</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02112344367563153</v>
+        <v>0.02140801044518707</v>
       </c>
     </row>
     <row r="32">
@@ -5122,19 +5122,19 @@
         <v>15038</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8401</v>
+        <v>8463</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24828</v>
+        <v>24672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004429376673045317</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002474472001680267</v>
+        <v>0.002492712087153432</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.00731286625066945</v>
+        <v>0.007267056275545226</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -5143,19 +5143,19 @@
         <v>22560</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13768</v>
+        <v>13681</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34110</v>
+        <v>32895</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006388291561289282</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003898651971537725</v>
+        <v>0.00387394447341882</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009658605627909338</v>
+        <v>0.009314756310561079</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -5164,19 +5164,19 @@
         <v>37598</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27672</v>
+        <v>26827</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54777</v>
+        <v>52649</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005428128850556787</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003995035246240948</v>
+        <v>0.003872993714578943</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007908142343655965</v>
+        <v>0.007600933439906012</v>
       </c>
     </row>
     <row r="33">
@@ -5508,19 +5508,19 @@
         <v>512998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>482830</v>
+        <v>478230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>550485</v>
+        <v>548560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4556397510444052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4288448518620626</v>
+        <v>0.4247592461380587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4889352958913321</v>
+        <v>0.4872258446532404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>579</v>
@@ -5529,19 +5529,19 @@
         <v>609946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>574470</v>
+        <v>572429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>644970</v>
+        <v>643368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4850134584145446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.456803538735566</v>
+        <v>0.4551811679248469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5128635387816929</v>
+        <v>0.5115898426296397</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1063</v>
@@ -5550,19 +5550,19 @@
         <v>1122944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1074872</v>
+        <v>1074303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1176732</v>
+        <v>1174118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4711381421071812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4509691479476304</v>
+        <v>0.4507303700940942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4937053615339889</v>
+        <v>0.4926083159197889</v>
       </c>
     </row>
     <row r="5">
@@ -5579,19 +5579,19 @@
         <v>386325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355605</v>
+        <v>353389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421692</v>
+        <v>417707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3431304962726835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3158447499063977</v>
+        <v>0.313876654889417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3745422721661285</v>
+        <v>0.3710032925672468</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -5600,19 +5600,19 @@
         <v>414473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>382601</v>
+        <v>382021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>451503</v>
+        <v>446982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3295779954691491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3042346994397262</v>
+        <v>0.3037730945224421</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.359023508458719</v>
+        <v>0.3554283296507734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>757</v>
@@ -5621,19 +5621,19 @@
         <v>800798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752194</v>
+        <v>754280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>852071</v>
+        <v>851180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3359798171062775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3155877178025624</v>
+        <v>0.3164627094580372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3574916757448017</v>
+        <v>0.3571177680316922</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>184005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>157865</v>
+        <v>159859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209174</v>
+        <v>209419</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1634310317834984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1402142753446042</v>
+        <v>0.1419850300270178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.185785914084915</v>
+        <v>0.1860040008536796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -5671,19 +5671,19 @@
         <v>190743</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165059</v>
+        <v>165694</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216499</v>
+        <v>216617</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1516738572925018</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1312506425947278</v>
+        <v>0.1317552395811407</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1721540904866636</v>
+        <v>0.1722484796198198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>352</v>
@@ -5692,19 +5692,19 @@
         <v>374747</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>336577</v>
+        <v>340342</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>410666</v>
+        <v>411044</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1572276170848146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1412128562709</v>
+        <v>0.1427927085078156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1722974335280458</v>
+        <v>0.1724562155916798</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>33483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23882</v>
+        <v>23314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46012</v>
+        <v>45514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02973927342815749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02121205197693357</v>
+        <v>0.02070735855395284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04086729181605249</v>
+        <v>0.04042521784228377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5742,19 +5742,19 @@
         <v>29569</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19291</v>
+        <v>20243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41413</v>
+        <v>43279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02351213833927827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01533936265711961</v>
+        <v>0.01609661656573038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0329305583534724</v>
+        <v>0.03441469563470111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -5763,19 +5763,19 @@
         <v>63052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48346</v>
+        <v>48919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79134</v>
+        <v>80462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02645366247030151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02028368605510168</v>
+        <v>0.02052440992331854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03320126316288652</v>
+        <v>0.03375848157174972</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>9074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4107</v>
+        <v>4235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17768</v>
+        <v>17693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008059447471255393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003647619961163202</v>
+        <v>0.003761353388085152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01578123897667117</v>
+        <v>0.0157151640864463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5813,19 +5813,19 @@
         <v>12856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6952</v>
+        <v>6673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22525</v>
+        <v>22175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0102225504845262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005527941215184326</v>
+        <v>0.005306558605160006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01791093796012136</v>
+        <v>0.01763288523325118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -5834,19 +5834,19 @@
         <v>21930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12957</v>
+        <v>12510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33180</v>
+        <v>33256</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00920076123142516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005436329715212656</v>
+        <v>0.005248585909835158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01392099450444426</v>
+        <v>0.01395259439905668</v>
       </c>
     </row>
     <row r="9">
@@ -5938,19 +5938,19 @@
         <v>479255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>446812</v>
+        <v>448170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>505249</v>
+        <v>511398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5281464328931537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4923936716348725</v>
+        <v>0.4938908525196749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.556792827187475</v>
+        <v>0.563568528770215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>488</v>
@@ -5959,19 +5959,19 @@
         <v>512721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>479091</v>
+        <v>482113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>544126</v>
+        <v>548274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5121648005091365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4785714685831129</v>
+        <v>0.4815895980298889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.543536186898451</v>
+        <v>0.5476793247575279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>954</v>
@@ -5980,19 +5980,19 @@
         <v>991976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>949660</v>
+        <v>947666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1033267</v>
+        <v>1036833</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5197634767131968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4975915376549236</v>
+        <v>0.4965464920717641</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5413987608936092</v>
+        <v>0.5432673564423371</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>280010</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253724</v>
+        <v>251886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307381</v>
+        <v>307057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3085757999270707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2796083305712879</v>
+        <v>0.2775821993457548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3387383927615898</v>
+        <v>0.3383821013366741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -6030,19 +6030,19 @@
         <v>315237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>285917</v>
+        <v>286573</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>345734</v>
+        <v>346064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3148948258356477</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.285607043870309</v>
+        <v>0.2862624888538755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3453586217441751</v>
+        <v>0.3456890626301836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>569</v>
@@ -6051,19 +6051,19 @@
         <v>595247</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553986</v>
+        <v>556808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637059</v>
+        <v>636408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3118903622958428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2902710407029547</v>
+        <v>0.2917497085464661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3337983302913536</v>
+        <v>0.3334574790281946</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>132014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111786</v>
+        <v>112068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155037</v>
+        <v>153939</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.145481415956137</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1231898090792412</v>
+        <v>0.1235009067200238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1708534732152927</v>
+        <v>0.1696435218706782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -6101,19 +6101,19 @@
         <v>146808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122307</v>
+        <v>123335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170816</v>
+        <v>169235</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1466488983168661</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1221746192930754</v>
+        <v>0.1232010905220148</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1706306897409166</v>
+        <v>0.1690511059791813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>263</v>
@@ -6122,19 +6122,19 @@
         <v>278822</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>250194</v>
+        <v>248160</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>311670</v>
+        <v>310792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1460938035543308</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1310938264902616</v>
+        <v>0.1300279113440428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1633050270991292</v>
+        <v>0.1628451980311761</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>15284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8946</v>
+        <v>8535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23905</v>
+        <v>23314</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01684344404213515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009858713621813476</v>
+        <v>0.009405374202082059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02634401134645341</v>
+        <v>0.0256925684972108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -6172,19 +6172,19 @@
         <v>21033</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13041</v>
+        <v>12319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32595</v>
+        <v>32277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02100991187594082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0130268074028495</v>
+        <v>0.01230544356029973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03255930840117634</v>
+        <v>0.03224165523512173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -6193,19 +6193,19 @@
         <v>36317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25966</v>
+        <v>25664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49790</v>
+        <v>51657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01902891023462014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01360528582279721</v>
+        <v>0.01344694073826745</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02608821325772188</v>
+        <v>0.0270664505560693</v>
       </c>
     </row>
     <row r="14">
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3739</v>
+        <v>4346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.000952907181503466</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004120400775897658</v>
+        <v>0.004788812802186391</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6243,19 +6243,19 @@
         <v>5287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2120</v>
+        <v>1985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11755</v>
+        <v>11828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005281563462408866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00211785034796135</v>
+        <v>0.001982976227964307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01174253365202888</v>
+        <v>0.0118148003004672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -6264,19 +6264,19 @@
         <v>6152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2763</v>
+        <v>2144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12344</v>
+        <v>13798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00322344720200943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001447889816491718</v>
+        <v>0.00112362869578549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006467977386640698</v>
+        <v>0.007229861964142333</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>490086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>461282</v>
+        <v>463433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>518226</v>
+        <v>517135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5963308470372092</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5612817614956033</v>
+        <v>0.5638991492507496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6305709465400345</v>
+        <v>0.6292435373637226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>397</v>
@@ -6389,19 +6389,19 @@
         <v>412038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>383237</v>
+        <v>382120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>442438</v>
+        <v>438958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5350520020004811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4976516404725461</v>
+        <v>0.4962013161434974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.574527751814219</v>
+        <v>0.5700081481744892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>866</v>
@@ -6410,19 +6410,19 @@
         <v>902124</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>864147</v>
+        <v>864707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>944099</v>
+        <v>943345</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5666873556290187</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5428309187027683</v>
+        <v>0.5431828104189308</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5930547181923158</v>
+        <v>0.5925808843771867</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>239980</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>213184</v>
+        <v>214627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>268126</v>
+        <v>269879</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2920048658484047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2593997228195261</v>
+        <v>0.2611561150020356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3262518854111912</v>
+        <v>0.3283860199584867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>234</v>
@@ -6460,19 +6460,19 @@
         <v>251743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223732</v>
+        <v>226530</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>277831</v>
+        <v>280939</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3269010511189838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2905270031223958</v>
+        <v>0.2941610576752568</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3607777873942173</v>
+        <v>0.3648137215160512</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>462</v>
@@ -6481,19 +6481,19 @@
         <v>491723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>451893</v>
+        <v>454095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>525976</v>
+        <v>531420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.308885810122518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2838657418838655</v>
+        <v>0.2852490636305144</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3304025492786546</v>
+        <v>0.3338222867295503</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>80045</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63735</v>
+        <v>64155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98564</v>
+        <v>100065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09739832410382213</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07755251417710846</v>
+        <v>0.0780624183614369</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1199318304026484</v>
+        <v>0.1217584232724201</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>86</v>
@@ -6531,19 +6531,19 @@
         <v>95451</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77936</v>
+        <v>78365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117428</v>
+        <v>116326</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.123948311803394</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1012034170011682</v>
+        <v>0.1017612630728139</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.152485640102861</v>
+        <v>0.1510556890209906</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>163</v>
@@ -6552,19 +6552,19 @@
         <v>175497</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>150645</v>
+        <v>152042</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201989</v>
+        <v>203227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.110241815716435</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09463068189646037</v>
+        <v>0.09550817663099896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1268831662716835</v>
+        <v>0.1276609640564335</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>11724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6472</v>
+        <v>6123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20783</v>
+        <v>20218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0142659630105639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007875295822069002</v>
+        <v>0.007450739491915932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0252881953467072</v>
+        <v>0.02460134064229695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6602,19 +6602,19 @@
         <v>10857</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5456</v>
+        <v>5579</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20101</v>
+        <v>19823</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01409863507714114</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007084695645600237</v>
+        <v>0.007244655674652201</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02610217887428593</v>
+        <v>0.02574131373192206</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -6623,19 +6623,19 @@
         <v>22581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14791</v>
+        <v>14617</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34275</v>
+        <v>35792</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0141850185320282</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009291246163491114</v>
+        <v>0.009181850328733296</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02153027424340288</v>
+        <v>0.02248368465847041</v>
       </c>
     </row>
     <row r="20">
@@ -6774,19 +6774,19 @@
         <v>332487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>309010</v>
+        <v>310572</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>353817</v>
+        <v>354169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.659591804673073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6130178118848908</v>
+        <v>0.6161155719410221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7019068572001143</v>
+        <v>0.7026052347037589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>303</v>
@@ -6795,19 +6795,19 @@
         <v>325885</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>304060</v>
+        <v>304218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>347839</v>
+        <v>346471</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6667551843551615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6221004527678153</v>
+        <v>0.6224235549801075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7116729784889864</v>
+        <v>0.7088729123137485</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>612</v>
@@ -6816,19 +6816,19 @@
         <v>658372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>625220</v>
+        <v>626380</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>688597</v>
+        <v>686392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6631182398840622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6297270128578843</v>
+        <v>0.6308949944136297</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6935611986942772</v>
+        <v>0.6913397376300294</v>
       </c>
     </row>
     <row r="23">
@@ -6845,19 +6845,19 @@
         <v>136552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116335</v>
+        <v>116170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160208</v>
+        <v>155490</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2708926070844292</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2307859546133447</v>
+        <v>0.230460434077438</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3178221978920741</v>
+        <v>0.3084633346641406</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>107</v>
@@ -6866,19 +6866,19 @@
         <v>113475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>93765</v>
+        <v>96402</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>132205</v>
+        <v>135126</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2321685034723172</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1918419741072498</v>
+        <v>0.1972359160956444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2704890495544937</v>
+        <v>0.2764662755451424</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>236</v>
@@ -6887,19 +6887,19 @@
         <v>250027</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>223077</v>
+        <v>221829</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>278595</v>
+        <v>276257</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2518292531157434</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2246852120235331</v>
+        <v>0.2234278975503845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2806029060252697</v>
+        <v>0.2782485395850919</v>
       </c>
     </row>
     <row r="24">
@@ -6916,19 +6916,19 @@
         <v>32227</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21730</v>
+        <v>22624</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45298</v>
+        <v>46809</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06393229590644123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04310822879235228</v>
+        <v>0.04488142669648612</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0898620116753004</v>
+        <v>0.09285975385222529</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -6937,19 +6937,19 @@
         <v>37964</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26485</v>
+        <v>27339</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52341</v>
+        <v>52463</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07767292117435838</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0541878083629348</v>
+        <v>0.0559343776019686</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1070882876980861</v>
+        <v>0.1073389571623787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -6958,19 +6958,19 @@
         <v>70191</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54177</v>
+        <v>54591</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>90316</v>
+        <v>89465</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07069662041753058</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0545674402669724</v>
+        <v>0.05498453239253973</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0909670453492107</v>
+        <v>0.09011032266528483</v>
       </c>
     </row>
     <row r="25">
@@ -6987,19 +6987,19 @@
         <v>2814</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8320</v>
+        <v>7808</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005583292336056578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001634861998305792</v>
+        <v>0.001646554129040886</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01650572005649285</v>
+        <v>0.01548872689451653</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -7008,19 +7008,19 @@
         <v>10234</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5316</v>
+        <v>4526</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19056</v>
+        <v>18142</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02093772397748473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01087721018831463</v>
+        <v>0.00926014062723827</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03898864532956946</v>
+        <v>0.03711727816045952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7029,19 +7029,19 @@
         <v>13048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6538</v>
+        <v>6502</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22356</v>
+        <v>22303</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01314207196077028</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006585250140835406</v>
+        <v>0.006549325189212795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0225173100805732</v>
+        <v>0.02246332224899127</v>
       </c>
     </row>
     <row r="26">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5957</v>
+        <v>6244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002465667020678229</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01218762486910181</v>
+        <v>0.01277499895775579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6749</v>
+        <v>6003</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001213814621893592</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00679812642551957</v>
+        <v>0.006046375076150504</v>
       </c>
     </row>
     <row r="27">
@@ -7196,19 +7196,19 @@
         <v>1814825</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1755357</v>
+        <v>1757698</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1868849</v>
+        <v>1877806</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5402507471630276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5225478671899472</v>
+        <v>0.5232447123390906</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5563329906042934</v>
+        <v>0.5589993822236012</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1767</v>
@@ -7217,19 +7217,19 @@
         <v>1860591</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1801517</v>
+        <v>1799428</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1925970</v>
+        <v>1924708</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5289487985358177</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5121546366290658</v>
+        <v>0.5115605579273748</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5475352864009384</v>
+        <v>0.5471766902578631</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3495</v>
@@ -7238,19 +7238,19 @@
         <v>3675417</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3591626</v>
+        <v>3589884</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3759907</v>
+        <v>3757836</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5344696919876922</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5222850694013839</v>
+        <v>0.5220318123117769</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5467560244123456</v>
+        <v>0.5464548576005974</v>
       </c>
     </row>
     <row r="29">
@@ -7267,19 +7267,19 @@
         <v>1042867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>992131</v>
+        <v>987744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1095342</v>
+        <v>1098846</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3104484598195849</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2953449459792656</v>
+        <v>0.2940388924463495</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3260694284405496</v>
+        <v>0.3271126965842743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1032</v>
@@ -7288,19 +7288,19 @@
         <v>1094928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1037792</v>
+        <v>1037742</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1149739</v>
+        <v>1148411</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3112779802733263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2950347031346678</v>
+        <v>0.2950203241430455</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3268600990383759</v>
+        <v>0.3264826185197923</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2024</v>
@@ -7309,19 +7309,19 @@
         <v>2137796</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2056562</v>
+        <v>2061376</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2214284</v>
+        <v>2219323</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3108727674916798</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2990599614804136</v>
+        <v>0.2997600752171076</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3219954583210101</v>
+        <v>0.3227283147787011</v>
       </c>
     </row>
     <row r="30">
@@ -7338,19 +7338,19 @@
         <v>428291</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>391306</v>
+        <v>392765</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>466170</v>
+        <v>468821</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1274967916933432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1164869544701949</v>
+        <v>0.1169213436182079</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1387729353250643</v>
+        <v>0.1395620835532871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>434</v>
@@ -7359,19 +7359,19 @@
         <v>470966</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>433227</v>
+        <v>430867</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>515457</v>
+        <v>513826</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1338913226605206</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1231624804437142</v>
+        <v>0.1224915597386478</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.146539557848109</v>
+        <v>0.1460759064547634</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>840</v>
@@ -7380,19 +7380,19 @@
         <v>899257</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>846142</v>
+        <v>849048</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>962655</v>
+        <v>957267</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1307676556444183</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1230438714666475</v>
+        <v>0.1234663301984761</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1399868765521317</v>
+        <v>0.139203258984304</v>
       </c>
     </row>
     <row r="31">
@@ -7409,19 +7409,19 @@
         <v>63306</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50762</v>
+        <v>48601</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>81863</v>
+        <v>79909</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01884537396969899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01511133105187404</v>
+        <v>0.01446798843709922</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02436949463205998</v>
+        <v>0.02378783169918894</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -7430,19 +7430,19 @@
         <v>71692</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56604</v>
+        <v>55226</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>90359</v>
+        <v>89776</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02038139459760476</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01609201597661418</v>
+        <v>0.01570022044134183</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02568822847965018</v>
+        <v>0.0255223430729473</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>127</v>
@@ -7451,19 +7451,19 @@
         <v>134998</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>112487</v>
+        <v>112500</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>158732</v>
+        <v>160188</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01963106326039334</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01635758491789001</v>
+        <v>0.0163594942171978</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0230823375415452</v>
+        <v>0.02329409972374023</v>
       </c>
     </row>
     <row r="32">
@@ -7480,19 +7480,19 @@
         <v>9939</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4951</v>
+        <v>5067</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19039</v>
+        <v>19531</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002958627354345334</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001473960850018286</v>
+        <v>0.001508387394353389</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.005667810473857306</v>
+        <v>0.005814236147021006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -7501,19 +7501,19 @@
         <v>19348</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11073</v>
+        <v>11643</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30564</v>
+        <v>31013</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005500503932730688</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003147820675909431</v>
+        <v>0.003309945834184818</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008689023759362041</v>
+        <v>0.00881661889109068</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -7522,19 +7522,19 @@
         <v>29287</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19408</v>
+        <v>19809</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42380</v>
+        <v>41514</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004258821615816334</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002822248401518378</v>
+        <v>0.002880599714170144</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006162835927343912</v>
+        <v>0.006036889680114245</v>
       </c>
     </row>
     <row r="33">
@@ -7866,19 +7866,19 @@
         <v>210383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186167</v>
+        <v>184882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234695</v>
+        <v>234252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4234169997426204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.374680354398681</v>
+        <v>0.3720940717174536</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4723472576638095</v>
+        <v>0.4714547896818055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>374</v>
@@ -7887,19 +7887,19 @@
         <v>281100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258477</v>
+        <v>261110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303523</v>
+        <v>303579</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4512344993902164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4149201864598716</v>
+        <v>0.4191467112753791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4872288333367306</v>
+        <v>0.4873201170809336</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -7908,19 +7908,19 @@
         <v>491483</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>460030</v>
+        <v>456875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>528503</v>
+        <v>526011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4388918065265652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4108045667466536</v>
+        <v>0.4079870002654706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4719503696311938</v>
+        <v>0.4697247431479682</v>
       </c>
     </row>
     <row r="5">
@@ -7937,19 +7937,19 @@
         <v>152984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132480</v>
+        <v>129645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177424</v>
+        <v>174572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3078952617010495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2666291309436407</v>
+        <v>0.2609235744035774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3570826342204193</v>
+        <v>0.351343455115644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -7958,19 +7958,19 @@
         <v>187454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168040</v>
+        <v>167125</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208685</v>
+        <v>210558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3009095357159216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2697455225508892</v>
+        <v>0.2682775474605567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3349913179887168</v>
+        <v>0.337998257972756</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>397</v>
@@ -7979,19 +7979,19 @@
         <v>340438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>310478</v>
+        <v>309942</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370042</v>
+        <v>371355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3040091194799682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2772555011337721</v>
+        <v>0.2767760080042795</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.330445428873387</v>
+        <v>0.331617561324708</v>
       </c>
     </row>
     <row r="6">
@@ -8008,19 +8008,19 @@
         <v>71845</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55345</v>
+        <v>56829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90114</v>
+        <v>90009</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1445943528634522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1113882768245132</v>
+        <v>0.1143749356121937</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1813626833707445</v>
+        <v>0.1811524243716234</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -8029,19 +8029,19 @@
         <v>86499</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72490</v>
+        <v>73494</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101307</v>
+        <v>103026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.138852224377617</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1163641639068356</v>
+        <v>0.1179756798142485</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1626225566887136</v>
+        <v>0.1653816462116816</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -8050,19 +8050,19 @@
         <v>158344</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138158</v>
+        <v>137964</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>180829</v>
+        <v>181807</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1414000208791768</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1233743996935579</v>
+        <v>0.1232014832238702</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1614796836908308</v>
+        <v>0.162352588201165</v>
       </c>
     </row>
     <row r="7">
@@ -8079,19 +8079,19 @@
         <v>44464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32535</v>
+        <v>33091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61234</v>
+        <v>61758</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08948854818005519</v>
+        <v>0.08948854818005518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06548084101309787</v>
+        <v>0.0665996617320682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1232391700429629</v>
+        <v>0.124294731585633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -8100,19 +8100,19 @@
         <v>51216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40670</v>
+        <v>40220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64446</v>
+        <v>63241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0822141400754168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06528524124030187</v>
+        <v>0.06456294675303734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1034525261271513</v>
+        <v>0.101516995270253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -8121,19 +8121,19 @@
         <v>95680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77778</v>
+        <v>80671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115286</v>
+        <v>118309</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08544181280437704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06945536458358248</v>
+        <v>0.07203877959299412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1029495349983931</v>
+        <v>0.1056496668667376</v>
       </c>
     </row>
     <row r="8">
@@ -8150,19 +8150,19 @@
         <v>17194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11178</v>
+        <v>10844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26163</v>
+        <v>26251</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0346048375128227</v>
+        <v>0.03460483751282269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02249689921680945</v>
+        <v>0.02182493522515768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05265533787028423</v>
+        <v>0.05283289745174189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -8171,19 +8171,19 @@
         <v>16689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10574</v>
+        <v>11279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23539</v>
+        <v>24261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02678960044082833</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0169732281388615</v>
+        <v>0.01810551427540242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0377853141103814</v>
+        <v>0.03894430394414387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -8192,19 +8192,19 @@
         <v>33883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25609</v>
+        <v>25280</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45004</v>
+        <v>45192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03025724030991279</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02286862722159595</v>
+        <v>0.02257467167632325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0401886678830749</v>
+        <v>0.04035635189502155</v>
       </c>
     </row>
     <row r="9">
@@ -8296,19 +8296,19 @@
         <v>454585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>420534</v>
+        <v>419967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>491204</v>
+        <v>488444</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4738602690877756</v>
+        <v>0.4738602690877755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4383657967893789</v>
+        <v>0.4377742068630693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5120314408377898</v>
+        <v>0.5091553516283659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>746</v>
@@ -8317,19 +8317,19 @@
         <v>540350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>508865</v>
+        <v>511122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>567959</v>
+        <v>571733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4842500324034982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4560343230297979</v>
+        <v>0.4580564522462953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5089929293543736</v>
+        <v>0.5123748985869947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1154</v>
@@ -8338,19 +8338,19 @@
         <v>994935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>949940</v>
+        <v>950626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1044424</v>
+        <v>1034787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4794469913199498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.457764527947974</v>
+        <v>0.4580948751042282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5032950887130013</v>
+        <v>0.4986512520174964</v>
       </c>
     </row>
     <row r="11">
@@ -8367,19 +8367,19 @@
         <v>384721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>349182</v>
+        <v>352980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>417933</v>
+        <v>420883</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4010343166596892</v>
+        <v>0.4010343166596891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3639880173777601</v>
+        <v>0.3679472232144794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4356536336769264</v>
+        <v>0.4387287664552174</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>612</v>
@@ -8388,19 +8388,19 @@
         <v>416642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>390097</v>
+        <v>386727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>445360</v>
+        <v>444875</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.373385314502176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3495968075143664</v>
+        <v>0.3465763593510641</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3991218945677379</v>
+        <v>0.3986872699416875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>980</v>
@@ -8409,19 +8409,19 @@
         <v>801363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>756560</v>
+        <v>759322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>842676</v>
+        <v>842057</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3861670583442801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3645768776441431</v>
+        <v>0.3659081097970783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4060750674669912</v>
+        <v>0.405777169719842</v>
       </c>
     </row>
     <row r="12">
@@ -8438,19 +8438,19 @@
         <v>74798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59818</v>
+        <v>59002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>91307</v>
+        <v>92016</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07796986918020089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06235476258461029</v>
+        <v>0.06150334097530842</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0951790511771573</v>
+        <v>0.09591801928591212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -8459,19 +8459,19 @@
         <v>105108</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90618</v>
+        <v>88776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121761</v>
+        <v>122498</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09419538796333993</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08121033290221513</v>
+        <v>0.07955891595358733</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1091196963025913</v>
+        <v>0.1097796642268068</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>248</v>
@@ -8480,19 +8480,19 @@
         <v>179906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>158363</v>
+        <v>159936</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>205608</v>
+        <v>207266</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0866945594122822</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07631308505247829</v>
+        <v>0.07707125865828987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09907998682342864</v>
+        <v>0.09987914885825962</v>
       </c>
     </row>
     <row r="13">
@@ -8509,19 +8509,19 @@
         <v>34331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24215</v>
+        <v>25332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48345</v>
+        <v>47475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0357867278604192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02524205199800777</v>
+        <v>0.02640627026193032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05039518789938918</v>
+        <v>0.04948777708176959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -8530,19 +8530,19 @@
         <v>47910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39318</v>
+        <v>38189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61175</v>
+        <v>60255</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04293634201041108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.035235684048094</v>
+        <v>0.03422433676338273</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05482377139340977</v>
+        <v>0.05399893420606558</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -8551,19 +8551,19 @@
         <v>82242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68160</v>
+        <v>67879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98283</v>
+        <v>100972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03963117619956294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03284527314751892</v>
+        <v>0.03271014731211428</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0473615094766973</v>
+        <v>0.04865704685064181</v>
       </c>
     </row>
     <row r="14">
@@ -8580,19 +8580,19 @@
         <v>10887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5655</v>
+        <v>5532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19871</v>
+        <v>20585</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01134881721191521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005894596505550303</v>
+        <v>0.005766770373735369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02071348729181131</v>
+        <v>0.021457394804532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -8601,19 +8601,19 @@
         <v>5839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2949</v>
+        <v>2825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11114</v>
+        <v>11105</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.005232923120574618</v>
+        <v>0.005232923120574617</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002642705699587251</v>
+        <v>0.002531670067186634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009960143559083036</v>
+        <v>0.009951653217923722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -8622,19 +8622,19 @@
         <v>16726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10865</v>
+        <v>10004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26740</v>
+        <v>27003</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008060214723924994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005235489781687156</v>
+        <v>0.004820654704806297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0128856949851342</v>
+        <v>0.0130123824096408</v>
       </c>
     </row>
     <row r="15">
@@ -8726,19 +8726,19 @@
         <v>651066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>622002</v>
+        <v>616557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>686091</v>
+        <v>680571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6231080904331532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5952927729466416</v>
+        <v>0.5900812292980835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6566292762642703</v>
+        <v>0.6513459271316433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>916</v>
@@ -8747,19 +8747,19 @@
         <v>651683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>624868</v>
+        <v>624478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>677819</v>
+        <v>677198</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6243505459585765</v>
+        <v>0.6243505459585764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5986603322875056</v>
+        <v>0.5982865765021063</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.649390797462959</v>
+        <v>0.6487952720630575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1518</v>
@@ -8768,19 +8768,19 @@
         <v>1302748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1255839</v>
+        <v>1258830</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1342894</v>
+        <v>1346379</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.62372899387909</v>
+        <v>0.6237289938790901</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6012699323949801</v>
+        <v>0.6027016999385337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6429500019500812</v>
+        <v>0.6446183622756989</v>
       </c>
     </row>
     <row r="17">
@@ -8797,19 +8797,19 @@
         <v>324601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292344</v>
+        <v>295919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>352306</v>
+        <v>358270</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3106624549616023</v>
+        <v>0.3106624549616024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2797905473379547</v>
+        <v>0.2832118818154992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3371771517379653</v>
+        <v>0.3428851617991937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>484</v>
@@ -8818,19 +8818,19 @@
         <v>319461</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>293540</v>
+        <v>295480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>344984</v>
+        <v>346909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3060621211387842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2812288044837408</v>
+        <v>0.283087179503876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3305153512541734</v>
+        <v>0.3323597197164501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>831</v>
@@ -8839,19 +8839,19 @@
         <v>644062</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>604959</v>
+        <v>601047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>688068</v>
+        <v>683369</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.308363488870181</v>
+        <v>0.3083634888701811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2896416531938176</v>
+        <v>0.2877686617101013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3294327137794724</v>
+        <v>0.3271826961002765</v>
       </c>
     </row>
     <row r="18">
@@ -8868,19 +8868,19 @@
         <v>54680</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41216</v>
+        <v>42363</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70522</v>
+        <v>70865</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05233152324243603</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03944650537969174</v>
+        <v>0.04054396555364195</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06749389511393925</v>
+        <v>0.06782199425963771</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -8889,19 +8889,19 @@
         <v>47090</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36012</v>
+        <v>35164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61213</v>
+        <v>61081</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04511454656785577</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0345019902754593</v>
+        <v>0.03368872318426684</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05864576820251739</v>
+        <v>0.05851953760294167</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -8910,19 +8910,19 @@
         <v>101769</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84566</v>
+        <v>84744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121934</v>
+        <v>120836</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04872491874448796</v>
+        <v>0.04872491874448797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04048857348485844</v>
+        <v>0.0405738439425247</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05837956047884101</v>
+        <v>0.05785366835016676</v>
       </c>
     </row>
     <row r="19">
@@ -8939,19 +8939,19 @@
         <v>10702</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5958</v>
+        <v>6096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18097</v>
+        <v>17729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01024213343943139</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00570232891663952</v>
+        <v>0.005834229054858859</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01731981179202764</v>
+        <v>0.01696802021456703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -8960,19 +8960,19 @@
         <v>19510</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13344</v>
+        <v>13542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26484</v>
+        <v>27586</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01869199151288222</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01278392209492669</v>
+        <v>0.0129741644306851</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02537343464352594</v>
+        <v>0.02642869791687495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -8981,19 +8981,19 @@
         <v>30212</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22274</v>
+        <v>22453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40679</v>
+        <v>40623</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01446485681916339</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01066414656883329</v>
+        <v>0.0107498348071651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01947643771378537</v>
+        <v>0.01944952266788038</v>
       </c>
     </row>
     <row r="20">
@@ -9010,19 +9010,19 @@
         <v>3820</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10753</v>
+        <v>10693</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003655797923376975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0009903446409309439</v>
+        <v>0.0009946422734060318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01029114067516753</v>
+        <v>0.01023416545460766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -9031,19 +9031,19 @@
         <v>6034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2808</v>
+        <v>2863</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11685</v>
+        <v>11671</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005780794821901254</v>
+        <v>0.005780794821901252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002690350806388365</v>
+        <v>0.002742613234861133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01119467542009011</v>
+        <v>0.01118159828376353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -9052,19 +9052,19 @@
         <v>9854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5092</v>
+        <v>5549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16999</v>
+        <v>18539</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004717741687077597</v>
+        <v>0.004717741687077596</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002437835881863285</v>
+        <v>0.002656809652865303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008138601531435471</v>
+        <v>0.00887613865357717</v>
       </c>
     </row>
     <row r="21">
@@ -9156,19 +9156,19 @@
         <v>664853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>631581</v>
+        <v>634191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>695331</v>
+        <v>696188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6819231514817186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6477969143433643</v>
+        <v>0.650473690713025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7131831096592013</v>
+        <v>0.7140627693997567</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>857</v>
@@ -9177,19 +9177,19 @@
         <v>621327</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>597388</v>
+        <v>595509</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>645962</v>
+        <v>644680</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6856948868903886</v>
+        <v>0.6856948868903885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6592753044328488</v>
+        <v>0.6572020177318236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7128810877171672</v>
+        <v>0.7114670365792529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1461</v>
@@ -9198,19 +9198,19 @@
         <v>1286181</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1244050</v>
+        <v>1246954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1323570</v>
+        <v>1326461</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6837400041981417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6613433773951798</v>
+        <v>0.6628868203048509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.703616381246821</v>
+        <v>0.7051532125569696</v>
       </c>
     </row>
     <row r="23">
@@ -9227,19 +9227,19 @@
         <v>239266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211692</v>
+        <v>211756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>270353</v>
+        <v>268783</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2454093062699947</v>
+        <v>0.2454093062699946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2171269332153082</v>
+        <v>0.2171927075036711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2772941746339724</v>
+        <v>0.27568416037851</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>378</v>
@@ -9248,19 +9248,19 @@
         <v>224254</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202562</v>
+        <v>202958</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>248332</v>
+        <v>245933</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2474864753851252</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2235469868329233</v>
+        <v>0.2239834311960764</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2740579913658681</v>
+        <v>0.2714110867741295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>643</v>
@@ -9269,19 +9269,19 @@
         <v>463521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>428094</v>
+        <v>430965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>503238</v>
+        <v>504855</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2464098829118821</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2275769644793781</v>
+        <v>0.2291031735971866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2675235881247319</v>
+        <v>0.2683835970246284</v>
       </c>
     </row>
     <row r="24">
@@ -9298,19 +9298,19 @@
         <v>46927</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32973</v>
+        <v>35548</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61541</v>
+        <v>63447</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04813161344672427</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03381989305644607</v>
+        <v>0.0364609442796525</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06312075872987852</v>
+        <v>0.06507606297772049</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -9319,19 +9319,19 @@
         <v>33142</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23655</v>
+        <v>23126</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46281</v>
+        <v>46457</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03657551398082623</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02610583941236579</v>
+        <v>0.02552160947100877</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05107514085074449</v>
+        <v>0.051270083924303</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -9340,19 +9340,19 @@
         <v>80069</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62424</v>
+        <v>64978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98967</v>
+        <v>98449</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04256501652754199</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03318483641639892</v>
+        <v>0.03454277385905243</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05261134661683942</v>
+        <v>0.05233579703551391</v>
       </c>
     </row>
     <row r="25">
@@ -9369,19 +9369,19 @@
         <v>21353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13639</v>
+        <v>14237</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31323</v>
+        <v>31547</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02190161407003029</v>
+        <v>0.02190161407003028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01398910526863897</v>
+        <v>0.01460294704862282</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03212671753952026</v>
+        <v>0.0323572209041202</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -9390,19 +9390,19 @@
         <v>19567</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12972</v>
+        <v>13672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29934</v>
+        <v>29350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02159359424077549</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01431561116922928</v>
+        <v>0.01508877056848959</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03303529547952913</v>
+        <v>0.03239087237394789</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -9411,19 +9411,19 @@
         <v>40920</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30558</v>
+        <v>30211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53725</v>
+        <v>55313</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02175324028373357</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01624452404697209</v>
+        <v>0.01606033145207664</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02856032926678849</v>
+        <v>0.02940472952299483</v>
       </c>
     </row>
     <row r="26">
@@ -9440,19 +9440,19 @@
         <v>2568</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7768</v>
+        <v>8145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002634314731532286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.000574954594244849</v>
+        <v>0.000577776480248421</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007967194753630159</v>
+        <v>0.008353930302677764</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -9461,19 +9461,19 @@
         <v>7838</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3663</v>
+        <v>3608</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17582</v>
+        <v>16373</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008649529502884425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004042112313744567</v>
+        <v>0.003981704545498197</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01940305843871825</v>
+        <v>0.01806919006752053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -9482,19 +9482,19 @@
         <v>10406</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5052</v>
+        <v>5614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19031</v>
+        <v>21198</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005531856078700546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0026857458501451</v>
+        <v>0.002984253520028832</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01011714490479929</v>
+        <v>0.01126904941395921</v>
       </c>
     </row>
     <row r="27">
@@ -9586,19 +9586,19 @@
         <v>1980887</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1920445</v>
+        <v>1916480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2044016</v>
+        <v>2042789</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5698707194173115</v>
+        <v>0.5698707194173114</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5524824901986433</v>
+        <v>0.5513418786619948</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5880318695734236</v>
+        <v>0.5876787886447561</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2893</v>
@@ -9607,19 +9607,19 @@
         <v>2094460</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2043624</v>
+        <v>2040998</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2148974</v>
+        <v>2147850</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.567802562367156</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5540209318211337</v>
+        <v>0.5533091512187827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5825811865933811</v>
+        <v>0.5822764439545842</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4683</v>
@@ -9628,19 +9628,19 @@
         <v>4075347</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3990063</v>
+        <v>3995120</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4152516</v>
+        <v>4160403</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5688059446223209</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5569026265760078</v>
+        <v>0.5576085567178584</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5795765928074854</v>
+        <v>0.5806775191885457</v>
       </c>
     </row>
     <row r="29">
@@ -9657,19 +9657,19 @@
         <v>1101573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1045607</v>
+        <v>1046611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1157949</v>
+        <v>1155836</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3169055356693001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3008050682465259</v>
+        <v>0.301093795776914</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3331242273161829</v>
+        <v>0.3325161152782586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1730</v>
@@ -9678,19 +9678,19 @@
         <v>1147811</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1100067</v>
+        <v>1097116</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1199258</v>
+        <v>1195948</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3111684274608099</v>
+        <v>0.3111684274608097</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.298225195075442</v>
+        <v>0.297425192546007</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3251155200538702</v>
+        <v>0.3242182990890541</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2851</v>
@@ -9699,19 +9699,19 @@
         <v>2249383</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2169473</v>
+        <v>2173302</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2333157</v>
+        <v>2325708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3139518295104404</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3027985954176795</v>
+        <v>0.3033329685773308</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.325644307269999</v>
+        <v>0.3246046358810817</v>
       </c>
     </row>
     <row r="30">
@@ -9728,19 +9728,19 @@
         <v>248249</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>218014</v>
+        <v>220939</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>276979</v>
+        <v>284440</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07141748155804839</v>
+        <v>0.07141748155804838</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06271920464415373</v>
+        <v>0.06356072301531486</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07968245934193927</v>
+        <v>0.08182901049067233</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>403</v>
@@ -9749,19 +9749,19 @@
         <v>271839</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245391</v>
+        <v>244707</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>298879</v>
+        <v>300617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07369470427073073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06652494180919438</v>
+        <v>0.06633938586155268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08102528744911575</v>
+        <v>0.08149645783046469</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>668</v>
@@ -9770,19 +9770,19 @@
         <v>520088</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>478444</v>
+        <v>482196</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>560134</v>
+        <v>561870</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07258989220590598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06677757383020316</v>
+        <v>0.06730125171461318</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07817926598115707</v>
+        <v>0.07842156480314617</v>
       </c>
     </row>
     <row r="31">
@@ -9799,19 +9799,19 @@
         <v>110850</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>92259</v>
+        <v>92807</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>136934</v>
+        <v>134956</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.03188991982323916</v>
+        <v>0.03188991982323915</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0265414031125022</v>
+        <v>0.02669902292770428</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03939389530902485</v>
+        <v>0.03882466008961918</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>214</v>
@@ -9820,19 +9820,19 @@
         <v>138203</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>119256</v>
+        <v>120650</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>157970</v>
+        <v>159416</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03746653122153348</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03233003399544953</v>
+        <v>0.03270802167053054</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04282531207082445</v>
+        <v>0.04321726586623229</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>335</v>
@@ -9841,19 +9841,19 @@
         <v>249053</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>222837</v>
+        <v>220675</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>280233</v>
+        <v>278870</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03476099543034261</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03110187750098339</v>
+        <v>0.03080011570942789</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03911275747316578</v>
+        <v>0.03892252317216953</v>
       </c>
     </row>
     <row r="32">
@@ -9870,19 +9870,19 @@
         <v>34469</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24300</v>
+        <v>24863</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46738</v>
+        <v>47379</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.009916343532100896</v>
+        <v>0.009916343532100894</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006990677187329761</v>
+        <v>0.007152563188482656</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01344567969716747</v>
+        <v>0.01363029249552734</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -9891,19 +9891,19 @@
         <v>36399</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27357</v>
+        <v>27164</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48311</v>
+        <v>48443</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009867774679769889</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007416495738692973</v>
+        <v>0.007364004913235147</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01309698617957204</v>
+        <v>0.01313266187404822</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -9912,19 +9912,19 @@
         <v>70869</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>56576</v>
+        <v>55961</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88667</v>
+        <v>86872</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.009891338230990043</v>
+        <v>0.009891338230990044</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007896496612640145</v>
+        <v>0.007810552776764467</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01237543875152801</v>
+        <v>0.01212487648117521</v>
       </c>
     </row>
     <row r="33">
